--- a/results/tinybert/dilemma/seed-500/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/seed-500/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="79">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,220 +46,193 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>creepy</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>few</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>0.95-positive</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>cruel</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>0.95-positive</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>improvement</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>is</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -635,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS51"/>
+  <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AT1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="BC1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="BL1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -866,13 +839,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.001863076927439141</v>
+        <v>0.003375945311609776</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -884,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>0.08660760989384668</v>
+        <v>0.05943032100643227</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -908,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.05443382926010022</v>
+        <v>0.003793340719842414</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -932,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AC3">
-        <v>0.05927183430934114</v>
+        <v>0.04346141533504915</v>
       </c>
       <c r="AD3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -956,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03689948718952005</v>
+        <v>0.1142436701222343</v>
       </c>
       <c r="AM3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AN3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -980,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AU3">
-        <v>0.05421244709319337</v>
+        <v>0.04097504558145827</v>
       </c>
       <c r="AV3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1004,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.03016944317065596</v>
+        <v>0.0910284517048431</v>
       </c>
       <c r="BE3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BF3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1028,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="BM3">
-        <v>0.05234672287155964</v>
+        <v>0.03996477944792101</v>
       </c>
       <c r="BN3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BO3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1052,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1060,38 +1033,38 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001243844058691886</v>
+        <v>0.001677886371000481</v>
       </c>
       <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>0.04563136335454748</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>0.05700278191619763</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -1102,44 +1075,44 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03807899199574831</v>
+        <v>0.001848760507100275</v>
       </c>
       <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4">
+        <v>0.04002908006149642</v>
+      </c>
+      <c r="AD4">
         <v>5</v>
       </c>
-      <c r="V4">
+      <c r="AE4">
         <v>5</v>
       </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC4">
-        <v>0.05215363773218783</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
       <c r="AF4">
         <v>0</v>
       </c>
@@ -1150,92 +1123,92 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.02926455044855509</v>
+        <v>0.05939249278091078</v>
       </c>
       <c r="AM4">
+        <v>7</v>
+      </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>59</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4">
+        <v>0.03915680064438824</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>45</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <v>0.05047025908547996</v>
+      </c>
+      <c r="BE4">
+        <v>7</v>
+      </c>
+      <c r="BF4">
+        <v>7</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>59</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM4">
+        <v>0.03886985420053385</v>
+      </c>
+      <c r="BN4">
         <v>4</v>
       </c>
-      <c r="AN4">
+      <c r="BO4">
         <v>4</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>12</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU4">
-        <v>0.05085621698090783</v>
-      </c>
-      <c r="AV4">
-        <v>2</v>
-      </c>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD4">
-        <v>0.02682514761085635</v>
-      </c>
-      <c r="BE4">
-        <v>4</v>
-      </c>
-      <c r="BF4">
-        <v>4</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>12</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM4">
-        <v>0.05037777379838414</v>
-      </c>
-      <c r="BN4">
-        <v>2</v>
-      </c>
-      <c r="BO4">
-        <v>2</v>
-      </c>
       <c r="BP4">
         <v>0</v>
       </c>
@@ -1246,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1254,38 +1227,38 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001243844058691886</v>
+        <v>0.001414020846175105</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>132</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>0.045569496880191</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5">
-        <v>0.05695512480956028</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -1296,44 +1269,44 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03807899199574831</v>
+        <v>0.001360549233573738</v>
       </c>
       <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>132</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5">
+        <v>0.03996240083745489</v>
+      </c>
+      <c r="AD5">
         <v>5</v>
       </c>
-      <c r="V5">
+      <c r="AE5">
         <v>5</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>61</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5">
-        <v>0.0521020757367961</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
@@ -1344,92 +1317,92 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>52</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5">
+        <v>0.03997104695651916</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>132</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU5">
+        <v>0.0390917639067281</v>
+      </c>
+      <c r="AV5">
         <v>4</v>
       </c>
-      <c r="AK5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5">
-        <v>0.02899432959347207</v>
-      </c>
-      <c r="AM5">
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD5">
+        <v>0.03810390755895655</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM5">
+        <v>0.03880237453668108</v>
+      </c>
+      <c r="BN5">
         <v>5</v>
       </c>
-      <c r="AN5">
+      <c r="BO5">
         <v>5</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>61</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU5">
-        <v>0.05080759659031361</v>
-      </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
-      <c r="AW5">
-        <v>2</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD5">
-        <v>0.02550744781497511</v>
-      </c>
-      <c r="BE5">
-        <v>5</v>
-      </c>
-      <c r="BF5">
-        <v>5</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>61</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM5">
-        <v>0.05033023816827311</v>
-      </c>
-      <c r="BN5">
-        <v>2</v>
-      </c>
-      <c r="BO5">
-        <v>2</v>
-      </c>
       <c r="BP5">
         <v>0</v>
       </c>
@@ -1440,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1448,134 +1421,134 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001195439167915505</v>
+        <v>0.0008584433361220937</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>0.0431455519248921</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>0.001017005969003939</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>0.03963790671325555</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <v>0.03917031962680866</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU6">
+        <v>0.03908937207186317</v>
+      </c>
+      <c r="AV6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="AW6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>133</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6">
-        <v>0.05676449638301089</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6">
-        <v>0.03562012905758968</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6">
-        <v>0.05189582775522918</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL6">
-        <v>0.02899432959347207</v>
-      </c>
-      <c r="AM6">
-        <v>5</v>
-      </c>
-      <c r="AN6">
-        <v>5</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>61</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU6">
-        <v>0.05061311502793674</v>
-      </c>
-      <c r="AV6">
-        <v>2</v>
-      </c>
-      <c r="AW6">
-        <v>2</v>
-      </c>
       <c r="AX6">
         <v>0</v>
       </c>
@@ -1586,44 +1559,44 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.02550744781497511</v>
+        <v>0.03159814041470983</v>
       </c>
       <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>132</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM6">
+        <v>0.03873464148756155</v>
+      </c>
+      <c r="BN6">
         <v>5</v>
       </c>
-      <c r="BF6">
+      <c r="BO6">
         <v>5</v>
       </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>61</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM6">
-        <v>0.05014009564782897</v>
-      </c>
-      <c r="BN6">
-        <v>2</v>
-      </c>
-      <c r="BO6">
-        <v>2</v>
-      </c>
       <c r="BP6">
         <v>0</v>
       </c>
@@ -1634,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1642,38 +1615,38 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001062531934697221</v>
+        <v>0.0008335638336045569</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>0.04290692409523138</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7">
-        <v>0.05671683927637354</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
@@ -1684,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T7">
-        <v>0.03230726084939944</v>
+        <v>0.0008988283320456402</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1708,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AC7">
-        <v>0.05184426575983744</v>
+        <v>0.0393807154205239</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1732,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.02556596033733321</v>
+        <v>0.03311290203333806</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1756,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AU7">
-        <v>0.05056449463734253</v>
+        <v>0.03883168226984569</v>
       </c>
       <c r="AV7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1780,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.02421990247897372</v>
+        <v>0.03145000853675537</v>
       </c>
       <c r="BE7">
         <v>3</v>
@@ -1804,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="BM7">
-        <v>0.05009256001771795</v>
+        <v>0.03860859815392997</v>
       </c>
       <c r="BN7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1828,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1836,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0008469330130692854</v>
+        <v>0.0008160809399435852</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1854,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.05547775450380245</v>
+        <v>0.04257107752015332</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1878,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02907295655743394</v>
+        <v>0.0008157845871560246</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1902,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AC8">
-        <v>0.05050365387965246</v>
+        <v>0.03901874249001269</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1926,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.02416520352569618</v>
+        <v>0.03071771106626921</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1950,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AU8">
-        <v>0.04930036448189291</v>
+        <v>0.03846564144756674</v>
       </c>
       <c r="AV8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1974,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.02283533368093941</v>
+        <v>0.0312807411716318</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1998,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="BM8">
-        <v>0.04898924640585261</v>
+        <v>0.03825974998792461</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2022,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2030,38 +2003,38 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0008348317903751902</v>
+        <v>0.0006396298834230674</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>0.03982896212530679</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9">
-        <v>0.0548582121175169</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -2072,44 +2045,44 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02763002377084672</v>
+        <v>0.0007427920380775662</v>
       </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9">
+        <v>0.03835132664217115</v>
+      </c>
+      <c r="AD9">
         <v>3</v>
       </c>
-      <c r="V9">
+      <c r="AE9">
         <v>3</v>
       </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC9">
-        <v>0.04983334793955997</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
       <c r="AF9">
         <v>0</v>
       </c>
@@ -2120,61 +2093,61 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.02339130234692397</v>
+        <v>0.03071771106626921</v>
       </c>
       <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU9">
+        <v>0.03821997613363208</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
         <v>5</v>
-      </c>
-      <c r="AN9">
-        <v>5</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>133</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU9">
-        <v>0.04876482860471422</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.02276846467878634</v>
+        <v>0.0312807411716318</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2192,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="BM9">
-        <v>0.04894171077574157</v>
+        <v>0.03824090445870968</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2216,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2224,7 +2197,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0006414184436864295</v>
+        <v>0.0006396298834230674</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2242,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.05452461237105545</v>
+        <v>0.03749339784766</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2266,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02372822804610088</v>
+        <v>0.0007427920380775662</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2290,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AC10">
-        <v>0.04947241397181786</v>
+        <v>0.03812208855231687</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2314,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10">
-        <v>0.02303466756914218</v>
+        <v>0.0305539970772565</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2338,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="AU10">
-        <v>0.04871620821412</v>
+        <v>0.03812125776658846</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2362,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD10">
-        <v>0.02253770321244729</v>
+        <v>0.03110090606292365</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2386,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="BM10">
-        <v>0.04885663363483107</v>
+        <v>0.03802777577621013</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2410,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2418,7 +2391,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0006394015732374138</v>
+        <v>0.000638957464436107</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2436,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.04179528252095565</v>
+        <v>0.03636906833660534</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2460,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1093</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.02348773924833635</v>
+        <v>0.0007395980478895041</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2484,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AC11">
-        <v>0.04815626248278147</v>
+        <v>0.03740704468730281</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2511,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.022801208100536</v>
+        <v>0.03039028308824378</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2532,19 +2505,19 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AU11">
-        <v>0.0486682994041681</v>
+        <v>0.03782742918656447</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2556,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.02230694174610824</v>
+        <v>0.03092107095421552</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2580,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="BM11">
-        <v>0.04879910388540848</v>
+        <v>0.03799824055605396</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2604,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2612,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0006373847027883979</v>
+        <v>0.0006382850454491464</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2630,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.04174762541431831</v>
+        <v>0.03470709211398741</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2654,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02324725045057181</v>
+        <v>0.000736404057701442</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2678,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AC12">
-        <v>0.04810470048738973</v>
+        <v>0.03740704468730281</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2702,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.02256774863192983</v>
+        <v>0.03006285511021834</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2726,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="AU12">
-        <v>0.04857034704233736</v>
+        <v>0.03782742918656447</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2750,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.02207618027976919</v>
+        <v>0.03056140073679924</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2777,10 +2750,10 @@
         <v>10</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BM12">
-        <v>0.04865649699507537</v>
+        <v>0.03799824055605396</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2798,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2806,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0006353678323393821</v>
+        <v>0.0006369402074752256</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2827,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.04160465409440625</v>
+        <v>0.03470709211398741</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2848,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02300676165280727</v>
+        <v>0.0007300160773253176</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2875,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AC13">
-        <v>0.04795001450121455</v>
+        <v>0.03738799348043381</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2896,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.02233428916332366</v>
+        <v>0.02957171314318019</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2920,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AU13">
-        <v>0.04842448587055471</v>
+        <v>0.03780816388012874</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2944,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.02199925979098951</v>
+        <v>0.03002189541067482</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2968,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="BM13">
-        <v>0.04823867044338763</v>
+        <v>0.03797888825630553</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -2992,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3000,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00063469554218971</v>
+        <v>0.0006349229505143442</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3018,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.0414616827744942</v>
+        <v>0.03468941597845698</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3042,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02292659872021909</v>
+        <v>0.0007204341067611312</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3066,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AC14">
-        <v>0.04779532851503936</v>
+        <v>0.03736894227356478</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3090,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.02225646934045494</v>
+        <v>0.02940799915416746</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3114,19 +3087,19 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AU14">
-        <v>0.04832795667000859</v>
+        <v>0.037788898573693</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3138,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.0215377368583114</v>
+        <v>0.02984206030196667</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3162,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="BM14">
-        <v>0.04818114069396504</v>
+        <v>0.03795953595655709</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3186,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3194,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0006306618012916783</v>
+        <v>0.0006342505315273838</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3212,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.04098511170812071</v>
+        <v>0.03467173984292657</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3236,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02244562112469002</v>
+        <v>0.0007172401165730691</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3260,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AC15">
-        <v>0.04727970856112206</v>
+        <v>0.03735941667013028</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3284,13 +3257,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.0217895504032426</v>
+        <v>0.02891685718712931</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3311,10 +3284,10 @@
         <v>17</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AU15">
-        <v>0.04793828196461255</v>
+        <v>0.03777926592047514</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3332,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD15">
-        <v>0.02099929343685362</v>
+        <v>0.02930255497584226</v>
       </c>
       <c r="BE15">
         <v>2</v>
@@ -3356,19 +3329,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="BM15">
-        <v>0.04790592103261039</v>
+        <v>0.03794985980668288</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3380,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3388,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0006259557702439747</v>
+        <v>0.0006322332745665025</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3406,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.03903117033598937</v>
+        <v>0.03466290177516135</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3430,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.02188448059657277</v>
+        <v>0.0007076581460088826</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3454,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AC16">
-        <v>0.04516566675006112</v>
+        <v>0.03731178865295776</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3478,19 +3451,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL16">
-        <v>0.02124481164316153</v>
+        <v>0.02885633831900737</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3502,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AU16">
-        <v>0.04594484595024968</v>
+        <v>0.0377311026543858</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3526,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BD16">
-        <v>0.02084545245929425</v>
+        <v>0.02677429571034373</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG16">
         <v>1</v>
@@ -3550,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="BM16">
-        <v>0.04623217985941266</v>
+        <v>0.03790147905731179</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3574,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3582,7 +3555,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0006246111899446307</v>
+        <v>0.0005925605543358358</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3600,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.03898351322935202</v>
+        <v>0.03461871143633529</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3624,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.02172415473139641</v>
+        <v>0.0005192127249132163</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3648,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC17">
-        <v>0.04511410475466939</v>
+        <v>0.03728321184265424</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3672,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.02108917199742408</v>
+        <v>0.0242296703738824</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3696,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AU17">
-        <v>0.04589622555965547</v>
+        <v>0.03770220469473221</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3720,19 +3693,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD17">
-        <v>0.02084545245929425</v>
+        <v>0.02661559608880472</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>1</v>
@@ -3744,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BM17">
-        <v>0.04618464422930162</v>
+        <v>0.03787245060768914</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3768,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3776,13 +3749,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0006246111899446307</v>
+        <v>0.0004288854585675666</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3794,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.03893585612271466</v>
+        <v>0.03459219723303966</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3818,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02172415473139641</v>
+        <v>0.0005069059894079387</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -3842,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AC18">
-        <v>0.04506254275927765</v>
+        <v>0.03713080218770215</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3866,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.02108917199742408</v>
+        <v>0.0242296703738824</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -3890,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AU18">
-        <v>0.04584760516906124</v>
+        <v>0.03754808224324633</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3914,19 +3887,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD18">
-        <v>0.02069161148173489</v>
+        <v>0.02661559608880472</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>1</v>
@@ -3938,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="BM18">
-        <v>0.04613710859919059</v>
+        <v>0.03771763220970165</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3962,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3970,13 +3943,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0006232666096452868</v>
+        <v>0.0004288854585675666</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3988,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.03879288480280262</v>
+        <v>0.03445078814879626</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4012,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02156382886622005</v>
+        <v>0.0005069059894079387</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -4036,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AC19">
-        <v>0.04490785677310247</v>
+        <v>0.03702602054992259</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4060,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.02093353235168664</v>
+        <v>0.02406595638486968</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>1</v>
@@ -4084,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AU19">
-        <v>0.0457017439972786</v>
+        <v>0.03744212305784979</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4108,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD19">
-        <v>0.02039398101324277</v>
+        <v>0.02643576098009658</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4132,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="BM19">
-        <v>0.04599450170885749</v>
+        <v>0.03761119456108525</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4156,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4164,13 +4137,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0006172159982982392</v>
+        <v>0.0004282130395806061</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4182,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.03836397084306647</v>
+        <v>0.03435356940337893</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4206,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02084236247292645</v>
+        <v>0.0005037119992198764</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -4230,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AC20">
-        <v>0.0444437988145769</v>
+        <v>0.03695934132588106</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4254,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.02023315394586813</v>
+        <v>0.02406595638486968</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>1</v>
@@ -4278,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AU20">
-        <v>0.04526416048193065</v>
+        <v>0.03737469448532472</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4302,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD20">
-        <v>0.02039398101324277</v>
+        <v>0.02643576098009658</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4326,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="BM20">
-        <v>0.04556668103785818</v>
+        <v>0.03754346151196573</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4350,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4358,13 +4331,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004424205593835304</v>
+        <v>0.0004282130395806061</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4376,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.03826865662979177</v>
+        <v>0.03429170292902245</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4400,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T21">
-        <v>0.01742154434370967</v>
+        <v>0.0005037119992198764</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4424,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AC21">
-        <v>0.04434067482379343</v>
+        <v>0.03692123891214304</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4448,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.01956953692652647</v>
+        <v>0.02406595638486968</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4472,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AU21">
-        <v>0.04516691970074223</v>
+        <v>0.03733616387245325</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4496,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD21">
-        <v>0.02039398101324277</v>
+        <v>0.02643576098009658</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4520,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="BM21">
-        <v>0.04547160977763612</v>
+        <v>0.03750475691246885</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4544,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4552,7 +4525,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004278363925075104</v>
+        <v>0.0004282130395806061</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4570,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.03731551449704478</v>
+        <v>0.0342563506579616</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4594,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22">
-        <v>0.01742154434370967</v>
+        <v>0.0005037119992198764</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4618,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AC22">
-        <v>0.04330943491595883</v>
+        <v>0.03684503408466699</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4642,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.01956953692652647</v>
+        <v>0.02390224239585696</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4666,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AU22">
-        <v>0.0441945118888579</v>
+        <v>0.03725910264671031</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4690,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BD22">
-        <v>0.02039398101324277</v>
+        <v>0.02625592587138844</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4714,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="BM22">
-        <v>0.04452089717541544</v>
+        <v>0.03742734771347511</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4738,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4746,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004278363925075104</v>
+        <v>0.0004275406205936457</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4764,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.02349495357221338</v>
+        <v>0.0341856461158399</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4788,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>0.01742154434370967</v>
+        <v>0.0005005180090318144</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4812,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AC23">
-        <v>0.02835645625235707</v>
+        <v>0.03683550848123248</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4836,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.01956953692652647</v>
+        <v>0.02390224239585696</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4860,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AU23">
-        <v>0.0300945986165352</v>
+        <v>0.03724946999349244</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4884,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BD23">
-        <v>0.02031706052446308</v>
+        <v>0.02625592587138844</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4908,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="BM23">
-        <v>0.03073556444321568</v>
+        <v>0.03741767156360089</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4932,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>384</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4940,7 +4913,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004278363925075104</v>
+        <v>0.0004275406205936457</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4958,19 +4931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.02031169218336585</v>
+        <v>0.03417680804807469</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4982,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1095</v>
+        <v>60</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T24">
-        <v>0.01742154434370967</v>
+        <v>0.0005005180090318144</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5006,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AC24">
-        <v>0.002936392524234071</v>
+        <v>0.03662594520567337</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5030,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>877</v>
+        <v>82</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.01956953692652647</v>
+        <v>0.02390224239585696</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5054,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AU24">
-        <v>0.006124746053586616</v>
+        <v>0.03703755162269937</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5078,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>877</v>
+        <v>82</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BD24">
-        <v>0.02031706052446308</v>
+        <v>0.02625592587138844</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5102,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="BM24">
-        <v>0.00730049879847607</v>
+        <v>0.03720479626636809</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5126,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>877</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5134,7 +5107,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004278363925075104</v>
+        <v>0.0004275406205936457</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5152,19 +5125,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.03415260823240988</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -5176,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>877</v>
+        <v>383</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25">
-        <v>0.01734138141112149</v>
+        <v>0.0005005180090318144</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5200,19 +5173,19 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.03472082451877228</v>
       </c>
       <c r="AD25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -5224,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1095</v>
+        <v>282</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.01949171710365774</v>
+        <v>0.02357481441783152</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5248,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>0.03511102097912593</v>
       </c>
       <c r="AV25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -5272,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1095</v>
+        <v>282</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BD25">
-        <v>0.0202401400356834</v>
+        <v>0.02589625565397216</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5296,19 +5269,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="BM25">
-        <v>0</v>
+        <v>0.0352695662915245</v>
       </c>
       <c r="BN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5320,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1095</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5328,7 +5301,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004271641023578384</v>
+        <v>0.0004261957826197248</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5346,13 +5319,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26">
+        <v>0.03398237055724003</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>82</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26">
-        <v>0.01734138141112149</v>
+        <v>0.0004941300286556901</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5370,13 +5367,37 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC26">
+        <v>0.03456841486382019</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>298</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.01949171710365774</v>
+        <v>0.02259253048375521</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5394,13 +5415,37 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU26">
+        <v>0.03495689852764006</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>298</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD26">
-        <v>0.0202401400356834</v>
+        <v>0.02481724500172332</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5418,7 +5463,31 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM26">
+        <v>0.03511474789353701</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5426,7 +5495,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004271641023578384</v>
+        <v>0.000422161268697962</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5444,13 +5513,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>0.03221475700419764</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>282</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27">
-        <v>0.01726121847853332</v>
+        <v>0.0004749660875273172</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5468,13 +5561,37 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC27">
+        <v>0.03452141045407382</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>383</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.01941389728078901</v>
+        <v>0.02226510250572977</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5492,13 +5609,37 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU27">
+        <v>0.03457883321727828</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>2</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>383</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.0202401400356834</v>
+        <v>0.02445757478430704</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5516,7 +5657,31 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM27">
+        <v>0.03460216533547021</v>
+      </c>
+      <c r="BN27">
+        <v>2</v>
+      </c>
+      <c r="BO27">
+        <v>2</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5524,7 +5689,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004264918122081665</v>
+        <v>0.0004208164307240411</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5542,13 +5707,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>0.03207334791995425</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>298</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T28">
-        <v>0.01726121847853332</v>
+        <v>0.000468578107151193</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5566,13 +5755,37 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC28">
+        <v>0.03004624766213473</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1093</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.01941389728078901</v>
+        <v>0.02226510250572977</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5590,13 +5803,37 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU28">
+        <v>0.02906178007206341</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>1093</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BD28">
-        <v>0.0202401400356834</v>
+        <v>0.02445757478430704</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5614,7 +5851,31 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM28">
+        <v>0.02875751742617581</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5622,7 +5883,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0004264918122081665</v>
+        <v>0.0004208164307240411</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5640,13 +5901,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29">
+        <v>0.02626673739820998</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>955</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T29">
-        <v>0.01726121847853332</v>
+        <v>0.000468578107151193</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5664,13 +5949,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC29">
+        <v>0.02831009340735013</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>955</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.01941389728078901</v>
+        <v>0.02210138851671705</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5688,13 +5997,37 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU29">
+        <v>0.0286282453635013</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>955</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BD29">
-        <v>0.0202401400356834</v>
+        <v>0.0242777396755989</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5712,7 +6045,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM29">
+        <v>0.02866176946850065</v>
+      </c>
+      <c r="BN29">
+        <v>5</v>
+      </c>
+      <c r="BO29">
+        <v>5</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5720,7 +6077,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0004264918122081665</v>
+        <v>0.0004201440117370807</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5738,13 +6095,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>3927</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T30">
-        <v>0.01726121847853332</v>
+        <v>0.0004653841169631308</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5762,13 +6143,37 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>3927</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL30">
-        <v>0.01941389728078901</v>
+        <v>0.02177396053869161</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -5786,13 +6191,37 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>3927</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BD30">
-        <v>0.0202401400356834</v>
+        <v>0.02391806945818262</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5810,7 +6239,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>3927</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5818,7 +6271,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0004264918122081665</v>
+        <v>0.0004187991737631598</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5836,13 +6289,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31">
-        <v>0.01726121847853332</v>
+        <v>0.0004589961365870065</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5860,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL31">
-        <v>0.01941389728078901</v>
+        <v>0.02095539059362802</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -5884,13 +6337,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD31">
-        <v>0.02016321954690372</v>
+        <v>0.02301889391464192</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -5908,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5916,7 +6369,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0004264918122081665</v>
+        <v>0.0004154370788283575</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5934,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T32">
-        <v>0.01726121847853332</v>
+        <v>0.0004430261856466958</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -5958,13 +6411,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL32">
-        <v>0.01941389728078901</v>
+        <v>0.01980939267053898</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -5982,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BD32">
-        <v>0.02016321954690372</v>
+        <v>0.02176004815368494</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6006,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:62">
@@ -6014,7 +6467,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0004264918122081665</v>
+        <v>0.0004107301459196344</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6032,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T33">
-        <v>0.01718105554594514</v>
+        <v>0.0004206682543302609</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6056,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.01933607745792029</v>
+        <v>0.01980939267053898</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6080,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD33">
-        <v>0.02016321954690372</v>
+        <v>0.02176004815368494</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6104,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:62">
@@ -6112,7 +6565,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0004258195220584945</v>
+        <v>0.0004107301459196344</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6130,13 +6583,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34">
-        <v>0.01718105554594514</v>
+        <v>0.0004206682543302609</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6154,13 +6607,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.01933607745792029</v>
+        <v>0.01948196469251355</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6178,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD34">
-        <v>0.02008629905812403</v>
+        <v>0.02140037793626866</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6202,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:62">
@@ -6210,7 +6663,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0004258195220584945</v>
+        <v>0.0004093853079457135</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6228,67 +6681,67 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="S35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35">
+        <v>0.0004142802739541365</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>29</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL35">
+        <v>0.01925773183537889</v>
+      </c>
+      <c r="AM35">
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>76</v>
+      </c>
+      <c r="BC35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T35">
-        <v>0.01718105554594514</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL35">
-        <v>0.01933607745792029</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>3</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="BD35">
-        <v>0.01999932708271773</v>
+        <v>0.02050120239272796</v>
       </c>
       <c r="BE35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG35">
         <v>1</v>
@@ -6300,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:62">
@@ -6308,7 +6761,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0004258195220584945</v>
+        <v>0.0004060232130109112</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6326,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T36">
-        <v>0.01710089261335696</v>
+        <v>0.0003983103230138259</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6350,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.01925825763505157</v>
+        <v>0.01866339474744995</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6374,19 +6827,19 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BD36">
-        <v>0.01996917262283789</v>
+        <v>0.01869228356206199</v>
       </c>
       <c r="BE36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG36">
         <v>1</v>
@@ -6398,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:62">
@@ -6406,7 +6859,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0004251472319088226</v>
+        <v>0.0003293674484974197</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6424,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T37">
-        <v>0.01686040381559242</v>
+        <v>3.419544157474176E-05</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6448,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL37">
-        <v>0.0190247981664454</v>
+        <v>0</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6472,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD37">
-        <v>0.01985553759178498</v>
+        <v>0</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6496,1379 +6949,7 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:62">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>0.0004231303614598067</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38">
-        <v>0.01661991501782789</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>10</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL38">
-        <v>0.01879133869783923</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>10</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD38">
-        <v>0.01962477612544593</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>1</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:62">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0.0004211134910107909</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39">
-        <v>0.01661991501782789</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>10</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL39">
-        <v>0.01879133869783923</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>10</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD39">
-        <v>0.01962477612544593</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>1</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:62">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.0004211134910107909</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T40">
-        <v>0.01653975208523971</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>11</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL40">
-        <v>0.0187135188749705</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>11</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD40">
-        <v>0.01954785563666625</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>1</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:62">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>0.0004204412008611189</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>11</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41">
-        <v>0.01637942622006335</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>13</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL41">
-        <v>0.01855787922923306</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>13</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD41">
-        <v>0.01939401465910688</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>1</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:62">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.000419096620561775</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>13</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T42">
-        <v>0.01629926328747517</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>14</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL42">
-        <v>0.01848005940636433</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>14</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD42">
-        <v>0.01931709417032719</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:62">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>0.000418424330412103</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>14</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T43">
-        <v>0.01629926328747517</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>14</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL43">
-        <v>0.01848005940636433</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>14</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD43">
-        <v>0.01931709417032719</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>1</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:62">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>0.000418424330412103</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>14</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T44">
-        <v>0.01621910035488699</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>15</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL44">
-        <v>0.01840223958349561</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>15</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD44">
-        <v>0.01924017368154751</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>1</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:62">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>0.0004177520402624311</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>15</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T45">
-        <v>0.01613893742229881</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>16</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL45">
-        <v>0.01832441976062689</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>16</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD45">
-        <v>0.01916325319276783</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:62">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
-        <v>0.0004170797501127591</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>16</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T46">
-        <v>0.01589844862453428</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>19</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL46">
-        <v>0.01809096029202071</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>19</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD46">
-        <v>0.01893249172642878</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>1</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:62">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>0.0004150628796637432</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>19</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T47">
-        <v>0.0158182856919461</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>20</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL47">
-        <v>0.01801314046915199</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>20</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD47">
-        <v>0.01885557123764909</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>1</v>
-      </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:62">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <v>0.0004143905895140712</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>20</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T48">
-        <v>0.01429518997277071</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>39</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL48">
-        <v>0.01653456383464624</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>1</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>39</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD48">
-        <v>0.0173940819508351</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>1</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:62">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49">
-        <v>0.0004016170766703041</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>39</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T49">
-        <v>0.01389437530982981</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>44</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL49">
-        <v>0.01614546472030262</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>1</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>44</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD49">
-        <v>0.01700947950693669</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>1</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:62">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50">
-        <v>0.0003982556259219443</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>44</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T50">
-        <v>0.01373404944465346</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>46</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL50">
-        <v>0.01598982507456518</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>1</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>46</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD50">
-        <v>0.01685563852937732</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>1</v>
-      </c>
-      <c r="BH50">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:62">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51">
-        <v>0.0003969110456226004</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>46</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>297</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>2</v>
-      </c>
-      <c r="AN51">
-        <v>2</v>
-      </c>
-      <c r="AO51">
-        <v>1</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>297</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>2</v>
-      </c>
-      <c r="BF51">
-        <v>2</v>
-      </c>
-      <c r="BG51">
-        <v>1</v>
-      </c>
-      <c r="BH51">
-        <v>0</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>297</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
